--- a/2017/601/lightsout.xlsx
+++ b/2017/601/lightsout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>A</t>
   </si>
@@ -32,12 +32,36 @@
   <si>
     <t>E</t>
   </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>X'</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Y'</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,8 +87,27 @@
       <name val="Helvetica Neue"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +126,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -231,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -281,6 +342,112 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,15 +1030,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -905,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -927,7 +1094,7 @@
       </c>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -945,7 +1112,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -971,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -993,7 +1160,7 @@
       </c>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1010,6 +1177,279 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="17"/>
+    </row>
+    <row r="8" spans="1:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="24"/>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="23"/>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="36"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="33"/>
+    </row>
+    <row r="10" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="34"/>
+    </row>
+    <row r="11" spans="1:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="37"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="34"/>
+    </row>
+    <row r="12" spans="1:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="3">
+        <v>4</v>
+      </c>
+      <c r="N12" s="38"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="40"/>
+    </row>
+    <row r="14" spans="1:17" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="41">
+        <v>1</v>
+      </c>
+      <c r="E15" s="43">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="49"/>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="41">
+        <v>2</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="11">
+        <v>2</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="42"/>
+    </row>
+    <row r="17" spans="4:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="41">
+        <v>3</v>
+      </c>
+      <c r="E17" s="44">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="41">
+        <v>4</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="4:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="41">
+        <v>5</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="54"/>
+    </row>
+    <row r="20" spans="4:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="41">
+        <v>6</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="54"/>
+    </row>
+    <row r="21" spans="4:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="41">
+        <v>7</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
